--- a/DOWNLOADS/EDITAIS/U_158154_E_906112025_25-09-2025_09h00m/U_158154_E_906112025_25-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158154_E_906112025_25-09-2025_09h00m/U_158154_E_906112025_25-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="206">
   <si>
     <t>Nº</t>
   </si>
@@ -292,112 +292,124 @@
     <t>Circuito Integrado Circuito Integrado Quantidade Pinos: 14, Aplicação: Eletrônica, Referência 4: 74hc14</t>
   </si>
   <si>
-    <t>ITEM 1 - MULTÍMETRO INDUSTRIAL: Multímetro Industrial de Precisão Com</t>
-  </si>
-  <si>
-    <t>ITEM 2 - MULTÍMETRO DIGITAL PORTÁTIL: Multímetro Digital portátil | Qualidade</t>
-  </si>
-  <si>
-    <t>ITEM 3 - RUGOSÍMETRO: Rugosímetro Portátil, qualidade equivalente ou superior</t>
-  </si>
-  <si>
-    <t>ITEM 4 - SOPRADOR TÉRMICO: Soprador térmico com dois estágios de operação</t>
-  </si>
-  <si>
-    <t>ITEM 5 - FURADEIRA DE IMPACTO: Furadeira de impacto 1/2º (13 mm), potência</t>
-  </si>
-  <si>
-    <t>ITEM 6 - PARAFUSADEIRA SEM FIO: Parafusadeira e chave de impacto elétrica |</t>
-  </si>
-  <si>
-    <t>ITEM 7 - TRANSPALETE HIDRÁULICO MANUAL: Altura dos garfos abaixados</t>
-  </si>
-  <si>
-    <t>ITEM 8 - CARRINHO DE CARGA TIPO PLATAFORMA: Carrinho de carga do tipo</t>
-  </si>
-  <si>
-    <t>ITEM 9 - ESCADA ARTICULADA 16 DEGRAUS: Tipo de posição: Multifuncional |</t>
-  </si>
-  <si>
-    <t>ITEM 10 - ESCADA DE 8 DEGRAUS: Altura total aberta: 220 cm | Largura total</t>
-  </si>
-  <si>
-    <t>ITEM 11 - ESCADA DE 5 DEGRAUS: Escada dupla (degrau largo) com 5 degraus,</t>
-  </si>
-  <si>
-    <t>ITEM 12 - CARRINHO DE LIMPEZA MULTIFUNCIONAL: Kit de limpeza com 4</t>
-  </si>
-  <si>
-    <t>ITEM 13 - LAVADORA DE ALTA PRESSÃO SEMI-PROFISSIONAL: Lavadora de</t>
-  </si>
-  <si>
-    <t>ITEM 14 - CADEIRA CAIXA ALTA: Cadeira caixa alta, estrutura giratória e base</t>
-  </si>
-  <si>
-    <t>ITEM 15 - TROCADOR DE FRALDA DE PAREDE: Trocador de fraldas de parede,</t>
-  </si>
-  <si>
-    <t>ITEM 16 - LOUSA DE VIDRO: Lousa de vidro temperado, medidas: 6 MM - 3,00m X</t>
-  </si>
-  <si>
-    <t>ITEM 17 - CAPACHO DE FIBRA DE COCO: Capacho de fibra de coco, costurado</t>
-  </si>
-  <si>
-    <t>ITEM 18 - CAPACHO DE FIBRA DE COCO: Capacho de fibra de coco, costurado</t>
-  </si>
-  <si>
-    <t>ITEM 19 - APARELHO DE AR CONDICIONADO: Aparelho de ar-condicionado</t>
-  </si>
-  <si>
-    <t>ITEM 20 - FRIGOBAR: Frigobar | Sistema de refrigeração frost free (sem formação</t>
-  </si>
-  <si>
-    <t>ITEM 21 - TELEVISÃO 70”: Smart TV 70”, qualidade equivalente ou superior à</t>
-  </si>
-  <si>
-    <t>ITEM 22 - PEDESTAL PARA TRANSPORTE DE TV: Pedestal indicado para TVs</t>
-  </si>
-  <si>
-    <t>ITEM 23 - MICROFONE: Microfone sem fio + Receptor | Alimentação: pilhas AAA |</t>
-  </si>
-  <si>
-    <t>ITEM 24 - TRANSMISSOR E RECEPTOR DE ÁUDIO E VÍDEO: Transmissor e</t>
-  </si>
-  <si>
-    <t>ITEM 25 - CAIXA DE SOM MÓVEL COM MICROFONES: Equivalente ou superior a</t>
-  </si>
-  <si>
-    <t>ITEM 26 - CAIXA DE SOM MÓVEL: Caixa de som, qualidade equivalente ou</t>
-  </si>
-  <si>
-    <t>ITEM 27 - SKATE: Tipo de skateboard, Street Semiprofissional, Material dos trucks:</t>
-  </si>
-  <si>
-    <t>ITEM 28 - SLACKLINE: Kit Slackline Completo 10m Profissional - Modelo Nokaya</t>
-  </si>
-  <si>
-    <t>ITEM 29 - PETECA PARA BADMINTON: Kit de Petecas De Badminton De Nylon 6</t>
-  </si>
-  <si>
-    <t>ITEM 30 - CABOS DE ENERGIA Y TRIPOLAR: Configuração do Cabo: Tipo: Cabo</t>
-  </si>
-  <si>
-    <t>ITEM 31 - NÍVEL DE MÃO DE 3 BOLHAS: Nível 3 Bolhas 18" (45 cm -</t>
-  </si>
-  <si>
-    <t>ITEM 32 - NÍVEL DE MÃO COM LASER: Laser com interruptor, base com régua</t>
-  </si>
-  <si>
-    <t>ITEM 33 - KIT COM 4 RODÍZIOS GIRATÓRIOS 5”: Kit com 4 rodízios com base</t>
-  </si>
-  <si>
-    <t>ITEM 34 - KIT COM 4 RODÍZIOS GIRATÓRIOS 50MM: Kit com 4 rodízios com base</t>
-  </si>
-  <si>
-    <t>ITEM 35 - CHAVEIROS COM ETIQUETAS: Chaveiros de poliestireno, para</t>
-  </si>
-  <si>
-    <t>ITEM 36 - SUPORTE DE PAREDE PARA CONTROLE REMOTO: Suporte de</t>
+    <t>Multímetro Industrial de Precisão Com Registrador de Dados -Qualidade equivalente ou superior ao modelo YOKOGAWA TY720 - Especificações: 50.000 contagens | display 4% dígitos | precisão básica 0,020% | medição TRUE RMS | display duplo | banda AC de 10Hz a 100KHz | medição e exibição simultânea de DC e AC | detecção RMS/MEAN comutável | filtro passa-baixa (LPF) | medição de resistência Lo-Power com escala de 5k e resolução de 0,001k | suporte a gerenciamento de dados | memória de 10.000 pontos no modo datalogger | comunicação USB com software | design robusto para ambientes severos | conforme EN61010-1 1000V CAT ll / 600V CAT IV | borne de segurança contra inserção incorreta de cabos | mede: tensão CC/CA, DCV+ACV, corrente CC/CA, DCA+ACA, resistência, frequência, temperatura, capacitância, ciclo de trabalho, decibéis, continuidade, teste de diodo, resistência de baixa potência | funções: retenção de dados, retenção automática e de pico, valores máx/mín/médios, zero em resistência e capacitância, cálculo relativo e percentual, memória manual e de registro, desligamento automático, luz de fundo LED branco | display LCD 5 dígitos (7 segmentos) | gráfico de barras com 51 segmentos | indicadores de polaridade, sobrecarga "OL" e bateria fraca | faixa de operação: -20 a +55ºC | inclui: multímetro, pontas de prova, interface ótica para PC, cabo USB, bolsa de proteção. Garantia de 3 anos do fabricante.</t>
+  </si>
+  <si>
+    <t>Multímetro Digital portátil | Qualidade equivalente ou superior ao modelo Fluke 106 | Tensão AC: 6,000 V / 60 V/600 V| Resolução: 0,001 V / 0,01 V /0,1 V | Precisão: +1,0% + 3 | Tensão DC: 6,000 V / 60 V / 600 V | Resolução: 0,001 V /0,01 V/0,1 V | Precisão: +0,5% + 3 | Milivolts AC: até 600 mV | Precisão: +3% | Resistência: 400 O a 40 MO | Resolução: 0,1 O a 0,01 MO | Precisão: até +1,5% + 3 | Capacitância: 50 nF a 1000 uF | Resolução: 0,01 nF a 1 uF | Precisão: até +5% + 5 | Frequência: 50 Hz a 100 kHz | Ciclo de trabalho: 1% a 99% | Corrente AC/DC: 4 A e 10 A | Resolução: 0,001 A / 0,01 A | Precisão: +1,5% + 3 | Display: 6000 contagens, atualização 3 vezes/s | Retenção de dados (data hold) | Alerta sonoro de continuidade | Impedância de entrada: &gt;10 MQ &lt;100 pF | Proteção contra sobrecarga: até 600 V | Categoria de segurança: CAT Ill 600V, IEC 61010-1 | Grau de poluição 2 | Alimentação: 2 pilhas AAA | Autonomia: &gt;200h | Temperatura de operação: O “C a 40 ºC | Umidade relativa: até 90% | Altitude de operação: até 2000 m | Dimensões aproximadas: 142 x 69 x 28 mm | IP40 | Proteção de corrente com fusível Fast 11A, 1000V | Ambiente eletromagnético: IEC 61326-1 (uso portátil). Garantia de um ano do fabricante</t>
+  </si>
+  <si>
+    <t>Rugosímetro Portátil, qualidade equivalente ou superior ao modelo Mahr PS 10 6910230, Código do fornecedor: 6910230 | USB MicroSD | Compacto, leve, simples e intuitivo para medição de rugosidade | Display ajustável 4.3" TFT sensível ao toque | Backup de dados via arquivos TXT, X3P ou PDF criados diretamente no equipamento | Inclusão de comentários nos arquivos PDF | Autonomia para 1200 medições | Unidade de avanço removível | Medição na horizontal e vertical | 31 parâmetros de superfície com funções laboratoriais | Acesso rápido e resultados em segundos | Micras: 2um | Parâmetros: Ra, Rq, Rz, Ry (JIS), Rz (JIS), RMax, Rp, RDA (ASME), Rom (ASME), Rpk, Rk, Rvk, Mr1, Mr2, A1, A2, Vo, Rt, RPc, Rmr (tp JIS/ASME), RS8m, RSk, RS, CR, CF, CL, R, Ar, Rx, R3z | Armazenamento: 1350 perfis, 500.000 resultados, 250 arquivos PDF | Memória expansível até 32 GB via cartão microSD/SDHC | Interface: USB, MarConnect RS232 | Proteção: IP40 | Bateria de lítio recarregável | Capacidade: 350 um | Resolução de perfil: ê nm | Cutoff automático conforme ISO/JIS: 0,25 mm, 0,8 mm, 2,5 mm | Número de cutoff selecionável: 1 a 16 | Comprimento de avaliação ISO/JIS: 1,5 mm, 4,8 mm, 15 mm (N x Lc) | Avaliação ISO 12085 (MOTIF): 1,2,4,38, 12, 16 mm | Avaliação ISO/JIS: 1,25 mm, 4,0 mm, 12,5 mm | Força de medição: 0,75 mN | Iltens inclusos: 01 Rugosímetro Portátil PS 10, 01 unidade de avanço destacável, 01 apalpador conforme norma, 01 bateria recarregável incorporada, 01 padrão de rugosidade integrado, 01 certificado de calibração Mahr, 01 proteção para apalpador, 01 carregador, 03 adaptadores, 01 estojo com alça de ombro, 01 cabo USB, 01 extensão de 1,2m para unidade de avanço, 01 software MarCom Professional (download gratuito), 01 manual | Dimensões aproximadas: 27 x 15x 18 cm (AxLxP). Garantia: 12 meses</t>
+  </si>
+  <si>
+    <t>Soprador térmico com dois estágios de operação | Potência 1º estágio: 750 W | Temperatura 1º estágio: 300 “C | Fluxo de ar 1º estágio: 280 L/min | Potência 2º estágio: 1500 W (ou superior) | Temperatura 2º estágio: 500 ºC (ou superior) | Fluxo de ar 2º estágio: 500 L/min (ou superior) | Alimentação: elétrica (com cabo) | Tensão: bivolt ou 127 V | Tipo de resistência: cerâmica | Sistema de controle de temperatura eletrônico | Corpo em material resistente ao calor | Empunhadura ergonômica com proteção térmica | Uso contínuo e profissional | Acompanha bicos direcionadores para diferentes aplicações | Deve acompanhar Manual em português. Garantia mínima: 12 meses</t>
+  </si>
+  <si>
+    <t>Furadeira de impacto 1/2º (13 mm), potência mínima de 850 W, qualidade equivalente ou superior à GSB 16 RE | Tensão: 127 V | Tipo: com e sem impacto | Mandril metálico de 1/2” com chave | Velocidade variável e reversível | Empunhadura auxiliar com limitador de profundidade | Capacidade de perfuração: 13 mm em aço, 16 mm em concreto e 30 mm em madeira | Controle eletrônico de velocidade com gatilho de dois dedos | Rotação mínima: 3.200 rpm | Impacto: mínimo 48.000 ipm | Botão trava para trabalhos contínuos | Peso aproximado: 1,8kg | Acompanha: maleta plástica resistente para transporte, empunhadura lateral, limitador de profundidade e manual em português. Garantia mínima de 12 meses.</t>
+  </si>
+  <si>
+    <t>Parafusadeira e chave de impacto elétrica | Com maleta de transporte | 15 regulagens de torque | Leve e fácil de manusear sem fios | Carregamento por fonte bivolt versátil e eficiente | LED de iluminação durante o uso | Acompanha maleta com jogo de soquetes com 46 peças. Qualidade equivalente ou superior a Bosch ou Makita. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Altura dos garfos abaixados (mm): 75 | Altura dos garfos elevados (mm): 190 | Altura total (mm): 1225 | Capacidade de carga (Kg): 2500 | Comprimento total (mm): 1533 | Comprimento útil do garfo (mm): 1150 | Curso total (mm): 115 | Largura Externa do Garfo (mm): 680mm (Opcional 525mm sob consulta) | Peso aproximado (Kg): 75 | Roda direcional (mm): &amp; 180x50 com rolamento de blind. dupla | Roda tandem (mm): &amp; T4x70 com rolamento de blind. dupla | Rodas: Tenden Poliuretano | Qualidade equivalente ou superior ao tipo Paletrans. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Carrinho de carga do tipo plataforma, sem grade | Estrutura em aço carbono reforçado com pintura eletrostática ou galvanização | Capacidade mínima de carga: 300 kg | Base com chapa de aço ou madeira compensada revestida | Rodízios reforçados: 2 fixos e 2 giratórios com freio | Rodas de borracha maciça ou PU, mínimo 6” de diâmetro | Alça para manuseio ergonômica | Plataforma com dimensões mínimas de 100 cm (C) x 60 cm (L) | Altura total do carrinho: até 110 cm | Peso máximo do carrinho vazio: 40 Kkg | Uso: interno e externo, em piso regular | Manual em português, se aplicável. Garantia mínima: 12 meses</t>
+  </si>
+  <si>
+    <t>Tipo de posição: Multifuncional | Materiais da estrutura: Alumínio | Quantidade de degraus: 16 | Altura máxima da escada: 4,23 m | Altura da escada fechada: 1,14 m | Largura da escada: 38,4 cm | É extensível: Sim | É dobrável: Sim | Peso aproximado: 12,42 kg | Peso máximo suportado: 150 kg | Distância entre os degraus: 25 cm | Altura da escada andaime: 1,11 m | Altura da escada tesoura: 1,91 cm | Quantidade de posições: 13 | Com degraus antiderrapantes: Sim | Com pés antiderrapantes: Sim | Com trava de segurança: Sim. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Altura total aberta: 220 cm | Largura total aberta: 129,5 cm | Altura até o patamar: 173 cm | Altura total fechada: 233 cm | Largura inferior: 49,5 cm | Largura superior: 31 cm | Espessura fechada: 10,5 cm | Quantidade de degraus: 8 | Composição: Alumínio reforçado, chapa de aço galvanizada, plástico. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Escada dupla (degrau largo) com 5 degraus, fabricada em alumínio, indicada para uso doméstico ou institucional leve. Degraus com superfície antiderrapante, altura total de no mínimo 1,53 m, plataforma superior de apoio, sapatas emborrachadas para maior estabilidade, estrutura leve e resistente com capacidade de carga de pelo menos 120 kg. Certificação do INMETRO ou equivalente. Garantia de 12 meses.</t>
+  </si>
+  <si>
+    <t>Kit de limpeza com 4 rodas para atividades de limpeza de pisos e superfícies em geral | Composto por: 01 carrinho com estrutura reforçada e rodízios, 01 balde espremedor para mop com capacidade de 30 litros, 01 cabo de alumínio com 1,40 m de comprimento, 01 garra euro plástica, 01 placa sinalizadora de piso molhado (cuidado), 01 pá tipo pop para resíduos, 01 conjunto mop de 60 cm e 01 refil mop tipo loop com cinta. Garantia mínima de 03 (três) meses.</t>
+  </si>
+  <si>
+    <t>Lavadora de alta pressão, qualidade equivalente ou superior ao modelo Karcher | Potência mínima: 2000 Watts | Motor brushless (sem escovas) de indução | Pressão mínima: 1800 psi ou superior | Vazão mínima: 500 L/h | Tensão: 127V | Mangueira de alta pressão com mínimo 10 metros | Cabo elétrico com mínimo 5 metros | Sistema stop total (desliga ao soltar o gatilho) | Bico ajustável ou conjunto de bicos para diferentes tipos de jato | Filtro de entrada de água | Reservatório para detergente com aplicador externo | Rodas para transporte | Estrutura robusta para uso contínuo | Manual em português. Garantia mínima de 12 meses.</t>
+  </si>
+  <si>
+    <t>Cadeira caixa alta, estrutura giratória e base aranha, sem braço, mocho alto, cor preta | Assento de espuma injetada anatomicamente com 45 mm de espessura, tamanho 47 x 43 x 6 cm | Encosto de espuma injetada anatomicamente com 40 mm de espessura, tamanho 42 x 40 x 6 cm | Altura do assento: mínima 66 cm / máxima 75 cm | Base giratória com pistão a gás e aranha de 5 hastes de aço com sapata | Tipo de regulagem: altura do assento e altura do encosto | Mecanismo back system com 2 alavancas de regulagem com movimento de inclinação | De acordo com a Norma Regulamentadora NR17 | Capacidade de carga: até 120 kg | Revestido em couro sintético preto. Garantia mínima de 3 (três) anos.</t>
+  </si>
+  <si>
+    <t>Trocador de fraldas de parede, rebatível quando não está em uso, com mesa em polietileno de alta resistência com estrutura em aço zincado ou inoxidável | Superfície lisa, sem cantos vivos, com acolchoamento impermeável, macio, atóxico e de fácil higienização | Capacidade mínima de carga: 15 kg | Cinto de segurança ajustável | Suporte com travas de segurança | Dimensões mínimas da superfície útil quando aberto: 85 cm (C) x 57 em (L) | Instalação: fixação em parede | Cor branco, bege ou cinza | Manual em português, se aplicável. Garantia mínima: 12 meses</t>
+  </si>
+  <si>
+    <t>Lousa de vidro temperado, medidas: 6 MM - 3,00m X 1,20m - Material: Vidro temperado (6 mm a 8 mm de espessura). Acabamento: Fosco (jateado). Fundo: Pintura na cor branca opaca, em tinta PU ou epóxi, resistente a riscos e à umidade, na cor branca. Instalação: pinos metálicos inox com espaçadores de até 2 cm. Com calha inferior para apoio de marcadores. Garantia de atendimento à NBR 14698 (Vidro temperado) e demais normas de segurança aplicáveis. Caso a dimensão padrão não esteja disponível, poderão ser aceitas lousas em dois painéis acoplados, sem prejuízo estético ou funcional. Garantia de 12 meses contra defeitos de fabricação.</t>
+  </si>
+  <si>
+    <t>Capacho de fibra de coco, costurado com espessura mínima de 30mm aproximadamente e mínimo de 600 fios por centímetro quadrado. Produto confeccionado com fibras vegetais resistentes, que proporcionam excelente retenção de sujeira e umidade, preservando a limpeza interna e reduzindo custos de manutenção. Tamanho 1,7/0m x 0,7/0Om. Personalizado com logo do IFSP. Garantia: 12 meses, contra defeito de fabricação.</t>
+  </si>
+  <si>
+    <t>Capacho de fibra de coco, costurado com espessura mínima de 30mm aproximadamente e mínimo de 600 fios por centímetro quadrado Produto confeccionado com fibras vegetais resistentes, que proporcionam excelente retenção de sujeira e umidade, preservando a limpeza interna e reduzindo custos de manutenção. Tamanho 1,30m x 0,60m. Personalizado com logo do IFSP. Garantia: 12 meses, contra defeito de fabricação.</t>
+  </si>
+  <si>
+    <t>Aparelho de ar-condicionado 30.000 BTUs. Qualidade equivalente ou superior ao Modelo: TAC 32CSG?2 - TCL | Tipo Split Hi-Wall | Capacidade de refrigeração: 30.000 BTUs/h | Ciclo: Frio | Classificação energética mínima A (Selo Procel) | Gás refrigerante ecológico R-32 ou superior | Tecnologia Inverter | Função timer, sleep e modo turbo | Modo de operação silencioso | Filtro de ar removível e lavável | Controle remoto com display digital | Tensão de alimentação: 220V monofásico ou conforme necessidade | Serpentina de cobre | Indicador de temperatura no display | Vazão mínima de ar: 900 m?/h | Instalação interna (evaporadora) e externa (condensadora) | Manual de instalação e operação em português | Compatível com normas da ABNT e certificação do Inmetro. Garantia mínima de 12 meses.</t>
+  </si>
+  <si>
+    <t>Frigobar | Sistema de refrigeração frost free (sem formação de gelo) ou degelo cycle defrost | Degelo automático ou semi-automático | Capacidade líquida mínima: 100 L | Freezer interno mínimo de 10L | Classificação energética mínima A (Selo Procel) | Termostato ajustável | Prateleiras removíveis e reguláveis | Compartimento para frutas/legumes | Porta-latas ou porta-garrafas | Iluminação interna | Tensão bivolt ou 127 V | Pés niveladores | Cor branca, preta ou inox | Baixo nível de ruído | Dimensões máximas: 90 cm (A) x 55 cm (L) x 60 cm (P) | Peso máximo: 30 kg | 1 porta com vedação magnética | Acompanha cabo de alimentação e manual em português. Garantia mínima de 12 meses.</t>
+  </si>
+  <si>
+    <t>Smart TV 70”, qualidade equivalente ou superior à Samsung 7ODUT77O00 | com controle remoto | Conversor digital integrado | Tela LED plana, painel RGB 8 bits | Resolução 4K (3840 x 2160), taxa de atualização 120 Hz MR | Vídeo: Mega Contraste, UHD Dimming, PurColor, Contrast Enhancer, Auto Motion Plus, Modo Filme | Áudio: Dolby Digital Plus, DTS Codec, alto-falante 2 canais, potência RMS 20W, Multiroom Link | Smart Service: aplicativos, navegador Web | Convergência: espelhamento TV—mobile e mobile-TV, DLNA, 360 Video Player, Wi-Fi Direct | Recursos: Instant On, processador Quad Core, acessibilidade (guia de voz, ampliar, contraste), Digital Clean View, busca automática de canais, Connect Share (HDD e USB 2.0), POP incorporado, Modo Jogo, Ultra Clean View, sensor ecológico | Wi-Fi integrado | Timer On/Off | Entradas: 3 HDMI, 2 USB, 1 vídeo componente, 1 vídeo composto (comum), 1 rede, 1 RF, 1 saída óptica | Entrada áudio/vídeo | Sistemas de TV: NTSC, PAL-M, PAL-N, ISDB-TB | Consumo: 220W | Classificação ENCE: A | Tensão: Bivolt | Dimensões aproximadas s/ base: 1688,9 x 971,2 x 66,0 mm | Dimensões aproximadas c/ base: 1688,9 x 1052,6 x 384,9 mm | Peso aproximado s/ base: 35,2 kg | Peso aproximado c/ base: 38,8 Kkg. Garantia: 1 ano</t>
+  </si>
+  <si>
+    <t>Pedestal indicado para TVs LED/LCD/Plasma/3D de 32" a 75" com peso até 50kg e compatíveis com padrão de fixação VESA 200x100, 200x200, 200x300, 300x200, 300x300, 400x200, 400x300, 400x400, 600x200 ou 600x400 mm (HxV).Normalmente encontrado em televisores com tela de 32 até 75". Pedestal de Chão com Regulagem de Altura. Bandeja de apoio para DVDs player, Blu-Ray, Notebook. Bandeja superior de apoio para Webcam. FUNÇÕES: Regulagem de altura da TV. Passagem interna para fiação. Regulagem de altura da bandeja inferior. Regulagem de altura da bandeja superior. Rodízios para movimentar o pedestal sobre superfícies planas. CAPACIDADE DE CARGA: Carga máxima do suporte para TV: Até 50Kkg. Carga máxima sobre a bandeja inferior: Até 10kg. Carga máxima sobre a bandeja superior: até 5Kkg. ALTURA: (Medida do chão ao centro da base de monitor): Altura Mínima: 1290mm. Altura Intermediária 13/0mm. Altura Máxima: 1450mm,* 3 opções de altura para a TV EXTRAS: 02 Rodízios com trava para evitar movimentações indesejadas. DADOS TÉCNICOS: Material: Aço Carbono. Medidas aproximadas da Bandeja Inferior: 48,5 x 29,3 em (LxP). Medidas aproximadas da Bandeja Superior: 22,8 x 29,8 cm (LxP). Medida aproximada da Base de Chão: 66,5 x 88 cm. Dimensões aproximadas da embalagem: (A x L x P): 36 x 96 x 12 cm. Peso aproximado bruto: 15 Kkg. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Microfone sem fio + Receptor | Alimentação: pilhas AAA | Frequência da portadora: 640 MHz — 690 MHz | Padrão polar: Cardioide | Sistema de transmissão: sem fio UHF multicanal/multifrequência | Alcance: até 100 metros | Sincronização de frequência: infravermelho | Resposta de frequência: 40 Hz — 20 kHz (+3 dB). Garantia: 12 meses.</t>
+  </si>
+  <si>
+    <t>Transmissor e Receptor de Áudio e Vídeo sem fio | Alcance de transmissão: mínimo 30m em ambiente aberto com sinal estável | Resolução suportada: Full HD 1080p a 60Hz | Frequência de operação: 5GHz (baixa interferência) | Conectividade: Transmissor com entrada HDMI e alimentação via USB-C (opcional) / Receptor com saída HDMI e alimentação via USB | Compatibilidade: notebooks, PCs, consoles (PS4/PS5), projetores, TVs e monitores | Instalação: plug &amp; play, sem necessidade de software ou rede Wi-Fi | Emparelhamento: automático, pré-configurado de fábrica | Latência: baixa, ideal para apresentações, vídeos e jogos | Temperatura de operação: até 50ºC | LED indicador: pisca durante a conexão e permanece aceso quando emparelhado. Garantia: 3 meses.</t>
+  </si>
+  <si>
+    <t>Equivalente ou superior a Marca: JBL | Linha: PartyBox | Modelo: JBLPBENCOREZ22MICBR | Modelo alfanumérico: JIBLPBENCORE2Z2MICBR | Cor: Preto | Formato do alto-falante: Caixa | Com luzes LED: Sim | Com modo mãos livres: Sim | Com função Karaokê: Sim | Com efeito de voz: Sim | Com rádio: Não | É portátil: Sim | É sem fio: Sim | É gamer: Não | É profissional: Não | É monitor de palco: Não | Com visor: Não | Sistemas operacionais compatíveis: Android, iOS e Windows Phone | Largura x Profundidade x Altura: 33,86 cm x 26,3 cm x 31,95 cm | Peso: 6,39 kg | Tipos de alimentação: Bateria | Homologação Anatel nº: 004632507120 | Fabricante: Harman International Industries | É resistente ao pó: Não | Tipo de bateria: Íon de lítio | Com NFC: Não | Classificação IP: IPX4 | Potência de saída (RMS): 100 kW | Tipos de alto-falante: Woofer | Configuração de canais: 5.4 | Resposta em frequência: 40 Hz — 20 kHz | Autonomia máxima da bateria: 15 h | Inclui bateria recarregável: Sim | Voltagem da bateria: 5V | Inclui carregador: Sim | Com base: Não | Com microfone: Sim | Inclui suporte: Não | Inclui controle remoto: Não | Lugares de colocação: De piso | É à prova d'água: Não | É adequado para uso ao ar livre: Sim | Inclui rodas: Não | Inclui puxador: Sim | Com Bluetooth: Sim | Com Wi-Fi: Não | Conectores de entrada: USB. Garantia: 3 meses.</t>
+  </si>
+  <si>
+    <t>Caixa de som, qualidade equivalente ou superior a JBL Party Speaker Ultimate | Potência RMS: 1100W | Bluetooth | Entradas duplas para microfone e violão/guitarra | Resistente à água: à prova de respingos | Sintonizador | Alça para transporte | Consumo: 1100W | Dimensões aproximadas: 104 cm (A) x 45,5 cm (L) x 44 cm (P) | Peso aproximado: 39,5 kg | Conteúdo da embalagem: 01 caixa de som, 01 guia de início rápido/ manual, 01 cartão de garantia/certificado de segurança, 01 cabo de energia. Garantia: 01 ano (3 meses legais + 9 meses concedidos pelo fabricante).</t>
+  </si>
+  <si>
+    <t>Tipo de skateboard, Street Semiprofissional, Material dos trucks: Alumínio. Material dos rolamentos: Rolamentos de skate feitos de aço, cerâmica e titânio. Material do deck: Eucalipto, Quantidade de lâminas do deck 7, Comprimento x Largura, 3.14 cm x 0./8 cm, Peso máximo suportado 100 Kkg, Com lixa, Semi Profissional Completo Montado. Cor das rodas: livre Marca: Progress - PGS, Narina - qualidade equivalente ou similar Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Kit Slackline Completo 10m Profissional - Modelo Nokaya Slackline - qualidade equivalente ou superior. Fita de 10m (Largura:50mm | 100% Poliéster) .Catraca de Tensão (com Fita Rabicho 2,0m) .Protetores de Árvore 1m x 15cm (2un.) .Corda de BackUp 8mm x 3,25m (corda extra de segurança para a catraca) Grafite em Pó para lubrificação da catraca Garantia: 3 meses</t>
+  </si>
+  <si>
+    <t>Kit de Petecas De Badminton De Nylon 6 Unidades Amarelo, Marca Vollo - qualidade equivalente ou superior. Especificações: Cor: Amarela, peso aproximado: 6g cada, dimensões aproximadas: 6,5cm x 8,5cm. Tubo com 6 unidades. Garantia: 30 dias</t>
+  </si>
+  <si>
+    <t>Configuração do Cabo: Tipo: Cabo tipo Y / derivação | Entradas/Saídas: 1 plugue macho tripolar (entrada), 2 conectores fêmeas tripolares (saída) | Distribuição: Fase, neutro e terra conectados paralelamente para alimentação conjunta | Capacidade de corrente: 10 amperes totais, divididos entre os dois equipamentos | Obs.: Os dois dispositivos somados não devem ultrapassar 10A | 2. Condutores: Material: Cobre eletrolítico flexível | Bitola recomendada: 3 x 1,00 mm? | Norma: NBR NM 247-3 | 3. Isolação Interna: Material: PVC ou borracha termoplástica | Cores padrão dos fios: Fase: Preto ou marrom | Neutro: Azul | Terra: Verde ou verde/amarelo | 4. Revestimento Externo: Capa única em PVC flexível | Alta resistência contra abrasão e calor | Cor típica: Preta | Diâmetro externo: Aproximadamente 7—8 mm por ramo. Garantia: mínimo 3 meses</t>
+  </si>
+  <si>
+    <t>Nível 3 Bolhas 18" (45 cm - STHT42073-LA) | Tamanho: 18" (45 cm) | Cor: Amarelo e preto | Frascos: Horizontal, vertical e 45º | Precisão: 0,0005" | Peso líquido aproximado: 500 g | Composição: Alumínio. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Laser com interruptor, base com régua em alumínio de 6 polegadas ou 15 cm e trena de aço de 2,5 metros | Trena de 2,5 m | Laser 63-680nm, potência máxima de saída 5mW, Classe llla | Laser atinge até 8 m de distância | Funciona com 3 baterias AG13 (inclusas) | Nível bolha vertical, horizontal e inclinado | Régua em centímetros e polegadas | Projeta o feixe na horizontal, vertical ou em cruz (ajuste para cima ou para baixo o canhão do laser). Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Kit com 4 rodízios com base giratória de 5", largura mínima de 50 mm e diâmetro mínimo de 125 a 150mm, para Carrinho Plataforma, sendo 2 rodas com freio e 2 rodas livres. Em material poliuretano largo, base em chapa de aço zincado, proporcionando resistência à oxidação/corrosão. Peso mínimo por roda: 100 kg. Rodas adequadas para uso em pisos de cimento irregular. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Kit com 4 rodízios com base giratória de 50 mm, 2 com trava e 2 sem trava, fixação por chapa U com abertura de 19 mm. Anti-risco, em material gel silicone, acabamento brilhante. Altura mínima total: 6,4 cm. Peso mínimo por roda: 50 kg. Garantia: 3 meses.</t>
+  </si>
+  <si>
+    <t>Chaveiros de poliestireno, para identificação de chaves, cores diversas, com etiqueta para identificação | Acabamento: Plástico | Medidas aproximadas: 0,5 X 2,7 X 7,3 cm. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Suporte de parede para controle remoto de ar condicionado. Dimensões externas aproximadas: 34x84x70 mm (Espessura x Altura x Largura) | Dimensões internas aproximadas: 30x82x66 mm (Espessura x Altura x Largura) | Aplicação: Controles com até 30 mm de espessura máxima, 66 mm de comprimento máximo, 200 mm de altura máxima | Material: Plástico ABS | Fixação: parafusos (incluso no Kit). Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>tonner modelo Q2612A para impressora HP Laser Jet 3050 original ou compatível. Garantia mínima de 3 meses.</t>
+  </si>
+  <si>
+    <t>Vaso para plantas, diâmetro da boca: 63 cm de altura - 80 cm de largura - 68 cm. Medida da base: 44 cm. Capacidade para 220L (modelo 3 da imagem que contém as medidas) com pé fixo de diâmetro 45 cm. Cor bege. Material: Polietileno Garantia: 5 anos</t>
+  </si>
+  <si>
+    <t>HD Externo Portátil | Capacidade: 1TB | Cor: Preto | Interface: USB 2.0/3.0 | Taxa de Transferência: até 5 Gb/s | Velocidade de Transferência: até 480 Mb/s | Temperatura de Operação: 5ºC a 35ºC | Temperatura de Armazenamento: -20ºC a 65ºC | Tipo: HDD externo portátil | Dimensão da Embalagem (A/P/L): 15,0 mm / 110,6 mm / 82,1 mm | Requisitos do Sistema: Windows 7/8/8.1/10/11, Mac OS X 10.6 ou posterior, Linux Kernel 2.6 ou posterior | Certificações: FCC-ICES, CE, BSMI, ROCM, VCCI, EAC, KC, UKCA. Garantia: 3 meses.</t>
+  </si>
+  <si>
+    <t>Telefone VoIlP | Contas SIP: 2 | Alimentação: PoE IEEE 802.3af Ativo | Display: 128x48 pixels monocromático com backlight | Teclas programáveis: 2 (L1 e L2) | Teclas softkeys: 4 | Agenda: 500 contatos + agenda remota (XML/LDAP) | Funções: WhiteList, Blacklist, Não Perturbe, Mudo, Hold, Chamada em Espera, Intercom, Chamada anônima, Desvio, Transferência, Rediscagem, Correio de voz, Conferência, HotLine, Histórico de chamadas, SIP Hotspot, Multicast | Histórico de chamadas: Recebidas, Geradas, Perdidas e Desviadas | Status do sistema: LED de status + display | Desvios: ocupado, não atende, sempre | Transferência: cega e/ou com atendimento | Interface LAN/WAN: 10/100 Mbps RJ45 | VLAN compatível IEEE 802.1Q | Configuração e atualização via navegador web ou teclado | Modo IP: Estático, DHCP, PPPoE | Protocolos de Internet: IPv4 e IPv6 | Protocolos: VolIP TCP/UDP, DNS, DNS-SRV, NAT, STUN, VLAN, TLS, QoS, LLDP/LLDP-MED, OpenVPN | Auto provisionamento: DHCP, HTTP/HTTPS, FTP, TFTP, RTP/RTCP/SRTP, SNTP, TRO69 | Protocolo SIP: 2.0 | Modo de operação de rede: Bridge | Áudio: CNG, VAD, cancelamento de eco, PCL, AGC | CODECs: G.711A/U, G.726-16/24/32/40</t>
   </si>
   <si>
     <t>1580,13</t>
@@ -1026,19 +1038,19 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1055,19 +1067,19 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1084,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1113,19 +1125,19 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1142,19 +1154,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1171,19 +1183,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1200,19 +1212,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1229,19 +1241,19 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1258,19 +1270,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1287,19 +1299,19 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1316,19 +1328,19 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1345,19 +1357,19 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1374,19 +1386,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1403,19 +1415,19 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1432,19 +1444,19 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1461,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1490,19 +1502,19 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1519,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1548,19 +1560,19 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1577,19 +1589,19 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1606,19 +1618,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1635,19 +1647,19 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1664,19 +1676,19 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1693,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1722,19 +1734,19 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1751,19 +1763,19 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1780,19 +1792,19 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1809,19 +1821,19 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I29" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1838,19 +1850,19 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1867,19 +1879,19 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1896,19 +1908,19 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1925,19 +1937,19 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1954,19 +1966,19 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1983,19 +1995,19 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2012,19 +2024,19 @@
         <v>500</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2041,19 +2053,19 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I37" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2063,23 +2075,26 @@
       <c r="B38" t="s">
         <v>86</v>
       </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2089,23 +2104,26 @@
       <c r="B39" t="s">
         <v>87</v>
       </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2115,23 +2133,26 @@
       <c r="B40" t="s">
         <v>88</v>
       </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
       <c r="D40">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2141,23 +2162,26 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
       <c r="D41">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G41" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2171,19 +2195,19 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2197,19 +2221,19 @@
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G43" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_158154_E_906112025_25-09-2025_09h00m/U_158154_E_906112025_25-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158154_E_906112025_25-09-2025_09h00m/U_158154_E_906112025_25-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
   <si>
     <t>Nº</t>
   </si>
@@ -292,334 +292,88 @@
     <t>Circuito Integrado Circuito Integrado Quantidade Pinos: 14, Aplicação: Eletrônica, Referência 4: 74hc14</t>
   </si>
   <si>
-    <t>Multímetro Industrial de Precisão Com Registrador de Dados -Qualidade equivalente ou superior ao modelo YOKOGAWA TY720 - Especificações: 50.000 contagens | display 4% dígitos | precisão básica 0,020% | medição TRUE RMS | display duplo | banda AC de 10Hz a 100KHz | medição e exibição simultânea de DC e AC | detecção RMS/MEAN comutável | filtro passa-baixa (LPF) | medição de resistência Lo-Power com escala de 5k e resolução de 0,001k | suporte a gerenciamento de dados | memória de 10.000 pontos no modo datalogger | comunicação USB com software | design robusto para ambientes severos | conforme EN61010-1 1000V CAT ll / 600V CAT IV | borne de segurança contra inserção incorreta de cabos | mede: tensão CC/CA, DCV+ACV, corrente CC/CA, DCA+ACA, resistência, frequência, temperatura, capacitância, ciclo de trabalho, decibéis, continuidade, teste de diodo, resistência de baixa potência | funções: retenção de dados, retenção automática e de pico, valores máx/mín/médios, zero em resistência e capacitância, cálculo relativo e percentual, memória manual e de registro, desligamento automático, luz de fundo LED branco | display LCD 5 dígitos (7 segmentos) | gráfico de barras com 51 segmentos | indicadores de polaridade, sobrecarga "OL" e bateria fraca | faixa de operação: -20 a +55ºC | inclui: multímetro, pontas de prova, interface ótica para PC, cabo USB, bolsa de proteção. Garantia de 3 anos do fabricante.</t>
-  </si>
-  <si>
-    <t>Multímetro Digital portátil | Qualidade equivalente ou superior ao modelo Fluke 106 | Tensão AC: 6,000 V / 60 V/600 V| Resolução: 0,001 V / 0,01 V /0,1 V | Precisão: +1,0% + 3 | Tensão DC: 6,000 V / 60 V / 600 V | Resolução: 0,001 V /0,01 V/0,1 V | Precisão: +0,5% + 3 | Milivolts AC: até 600 mV | Precisão: +3% | Resistência: 400 O a 40 MO | Resolução: 0,1 O a 0,01 MO | Precisão: até +1,5% + 3 | Capacitância: 50 nF a 1000 uF | Resolução: 0,01 nF a 1 uF | Precisão: até +5% + 5 | Frequência: 50 Hz a 100 kHz | Ciclo de trabalho: 1% a 99% | Corrente AC/DC: 4 A e 10 A | Resolução: 0,001 A / 0,01 A | Precisão: +1,5% + 3 | Display: 6000 contagens, atualização 3 vezes/s | Retenção de dados (data hold) | Alerta sonoro de continuidade | Impedância de entrada: &gt;10 MQ &lt;100 pF | Proteção contra sobrecarga: até 600 V | Categoria de segurança: CAT Ill 600V, IEC 61010-1 | Grau de poluição 2 | Alimentação: 2 pilhas AAA | Autonomia: &gt;200h | Temperatura de operação: O “C a 40 ºC | Umidade relativa: até 90% | Altitude de operação: até 2000 m | Dimensões aproximadas: 142 x 69 x 28 mm | IP40 | Proteção de corrente com fusível Fast 11A, 1000V | Ambiente eletromagnético: IEC 61326-1 (uso portátil). Garantia de um ano do fabricante</t>
-  </si>
-  <si>
-    <t>Rugosímetro Portátil, qualidade equivalente ou superior ao modelo Mahr PS 10 6910230, Código do fornecedor: 6910230 | USB MicroSD | Compacto, leve, simples e intuitivo para medição de rugosidade | Display ajustável 4.3" TFT sensível ao toque | Backup de dados via arquivos TXT, X3P ou PDF criados diretamente no equipamento | Inclusão de comentários nos arquivos PDF | Autonomia para 1200 medições | Unidade de avanço removível | Medição na horizontal e vertical | 31 parâmetros de superfície com funções laboratoriais | Acesso rápido e resultados em segundos | Micras: 2um | Parâmetros: Ra, Rq, Rz, Ry (JIS), Rz (JIS), RMax, Rp, RDA (ASME), Rom (ASME), Rpk, Rk, Rvk, Mr1, Mr2, A1, A2, Vo, Rt, RPc, Rmr (tp JIS/ASME), RS8m, RSk, RS, CR, CF, CL, R, Ar, Rx, R3z | Armazenamento: 1350 perfis, 500.000 resultados, 250 arquivos PDF | Memória expansível até 32 GB via cartão microSD/SDHC | Interface: USB, MarConnect RS232 | Proteção: IP40 | Bateria de lítio recarregável | Capacidade: 350 um | Resolução de perfil: ê nm | Cutoff automático conforme ISO/JIS: 0,25 mm, 0,8 mm, 2,5 mm | Número de cutoff selecionável: 1 a 16 | Comprimento de avaliação ISO/JIS: 1,5 mm, 4,8 mm, 15 mm (N x Lc) | Avaliação ISO 12085 (MOTIF): 1,2,4,38, 12, 16 mm | Avaliação ISO/JIS: 1,25 mm, 4,0 mm, 12,5 mm | Força de medição: 0,75 mN | Iltens inclusos: 01 Rugosímetro Portátil PS 10, 01 unidade de avanço destacável, 01 apalpador conforme norma, 01 bateria recarregável incorporada, 01 padrão de rugosidade integrado, 01 certificado de calibração Mahr, 01 proteção para apalpador, 01 carregador, 03 adaptadores, 01 estojo com alça de ombro, 01 cabo USB, 01 extensão de 1,2m para unidade de avanço, 01 software MarCom Professional (download gratuito), 01 manual | Dimensões aproximadas: 27 x 15x 18 cm (AxLxP). Garantia: 12 meses</t>
-  </si>
-  <si>
-    <t>Soprador térmico com dois estágios de operação | Potência 1º estágio: 750 W | Temperatura 1º estágio: 300 “C | Fluxo de ar 1º estágio: 280 L/min | Potência 2º estágio: 1500 W (ou superior) | Temperatura 2º estágio: 500 ºC (ou superior) | Fluxo de ar 2º estágio: 500 L/min (ou superior) | Alimentação: elétrica (com cabo) | Tensão: bivolt ou 127 V | Tipo de resistência: cerâmica | Sistema de controle de temperatura eletrônico | Corpo em material resistente ao calor | Empunhadura ergonômica com proteção térmica | Uso contínuo e profissional | Acompanha bicos direcionadores para diferentes aplicações | Deve acompanhar Manual em português. Garantia mínima: 12 meses</t>
-  </si>
-  <si>
-    <t>Furadeira de impacto 1/2º (13 mm), potência mínima de 850 W, qualidade equivalente ou superior à GSB 16 RE | Tensão: 127 V | Tipo: com e sem impacto | Mandril metálico de 1/2” com chave | Velocidade variável e reversível | Empunhadura auxiliar com limitador de profundidade | Capacidade de perfuração: 13 mm em aço, 16 mm em concreto e 30 mm em madeira | Controle eletrônico de velocidade com gatilho de dois dedos | Rotação mínima: 3.200 rpm | Impacto: mínimo 48.000 ipm | Botão trava para trabalhos contínuos | Peso aproximado: 1,8kg | Acompanha: maleta plástica resistente para transporte, empunhadura lateral, limitador de profundidade e manual em português. Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Parafusadeira e chave de impacto elétrica | Com maleta de transporte | 15 regulagens de torque | Leve e fácil de manusear sem fios | Carregamento por fonte bivolt versátil e eficiente | LED de iluminação durante o uso | Acompanha maleta com jogo de soquetes com 46 peças. Qualidade equivalente ou superior a Bosch ou Makita. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Altura dos garfos abaixados (mm): 75 | Altura dos garfos elevados (mm): 190 | Altura total (mm): 1225 | Capacidade de carga (Kg): 2500 | Comprimento total (mm): 1533 | Comprimento útil do garfo (mm): 1150 | Curso total (mm): 115 | Largura Externa do Garfo (mm): 680mm (Opcional 525mm sob consulta) | Peso aproximado (Kg): 75 | Roda direcional (mm): &amp; 180x50 com rolamento de blind. dupla | Roda tandem (mm): &amp; T4x70 com rolamento de blind. dupla | Rodas: Tenden Poliuretano | Qualidade equivalente ou superior ao tipo Paletrans. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Carrinho de carga do tipo plataforma, sem grade | Estrutura em aço carbono reforçado com pintura eletrostática ou galvanização | Capacidade mínima de carga: 300 kg | Base com chapa de aço ou madeira compensada revestida | Rodízios reforçados: 2 fixos e 2 giratórios com freio | Rodas de borracha maciça ou PU, mínimo 6” de diâmetro | Alça para manuseio ergonômica | Plataforma com dimensões mínimas de 100 cm (C) x 60 cm (L) | Altura total do carrinho: até 110 cm | Peso máximo do carrinho vazio: 40 Kkg | Uso: interno e externo, em piso regular | Manual em português, se aplicável. Garantia mínima: 12 meses</t>
-  </si>
-  <si>
-    <t>Tipo de posição: Multifuncional | Materiais da estrutura: Alumínio | Quantidade de degraus: 16 | Altura máxima da escada: 4,23 m | Altura da escada fechada: 1,14 m | Largura da escada: 38,4 cm | É extensível: Sim | É dobrável: Sim | Peso aproximado: 12,42 kg | Peso máximo suportado: 150 kg | Distância entre os degraus: 25 cm | Altura da escada andaime: 1,11 m | Altura da escada tesoura: 1,91 cm | Quantidade de posições: 13 | Com degraus antiderrapantes: Sim | Com pés antiderrapantes: Sim | Com trava de segurança: Sim. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Altura total aberta: 220 cm | Largura total aberta: 129,5 cm | Altura até o patamar: 173 cm | Altura total fechada: 233 cm | Largura inferior: 49,5 cm | Largura superior: 31 cm | Espessura fechada: 10,5 cm | Quantidade de degraus: 8 | Composição: Alumínio reforçado, chapa de aço galvanizada, plástico. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Escada dupla (degrau largo) com 5 degraus, fabricada em alumínio, indicada para uso doméstico ou institucional leve. Degraus com superfície antiderrapante, altura total de no mínimo 1,53 m, plataforma superior de apoio, sapatas emborrachadas para maior estabilidade, estrutura leve e resistente com capacidade de carga de pelo menos 120 kg. Certificação do INMETRO ou equivalente. Garantia de 12 meses.</t>
-  </si>
-  <si>
-    <t>Kit de limpeza com 4 rodas para atividades de limpeza de pisos e superfícies em geral | Composto por: 01 carrinho com estrutura reforçada e rodízios, 01 balde espremedor para mop com capacidade de 30 litros, 01 cabo de alumínio com 1,40 m de comprimento, 01 garra euro plástica, 01 placa sinalizadora de piso molhado (cuidado), 01 pá tipo pop para resíduos, 01 conjunto mop de 60 cm e 01 refil mop tipo loop com cinta. Garantia mínima de 03 (três) meses.</t>
-  </si>
-  <si>
-    <t>Lavadora de alta pressão, qualidade equivalente ou superior ao modelo Karcher | Potência mínima: 2000 Watts | Motor brushless (sem escovas) de indução | Pressão mínima: 1800 psi ou superior | Vazão mínima: 500 L/h | Tensão: 127V | Mangueira de alta pressão com mínimo 10 metros | Cabo elétrico com mínimo 5 metros | Sistema stop total (desliga ao soltar o gatilho) | Bico ajustável ou conjunto de bicos para diferentes tipos de jato | Filtro de entrada de água | Reservatório para detergente com aplicador externo | Rodas para transporte | Estrutura robusta para uso contínuo | Manual em português. Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Cadeira caixa alta, estrutura giratória e base aranha, sem braço, mocho alto, cor preta | Assento de espuma injetada anatomicamente com 45 mm de espessura, tamanho 47 x 43 x 6 cm | Encosto de espuma injetada anatomicamente com 40 mm de espessura, tamanho 42 x 40 x 6 cm | Altura do assento: mínima 66 cm / máxima 75 cm | Base giratória com pistão a gás e aranha de 5 hastes de aço com sapata | Tipo de regulagem: altura do assento e altura do encosto | Mecanismo back system com 2 alavancas de regulagem com movimento de inclinação | De acordo com a Norma Regulamentadora NR17 | Capacidade de carga: até 120 kg | Revestido em couro sintético preto. Garantia mínima de 3 (três) anos.</t>
-  </si>
-  <si>
-    <t>Trocador de fraldas de parede, rebatível quando não está em uso, com mesa em polietileno de alta resistência com estrutura em aço zincado ou inoxidável | Superfície lisa, sem cantos vivos, com acolchoamento impermeável, macio, atóxico e de fácil higienização | Capacidade mínima de carga: 15 kg | Cinto de segurança ajustável | Suporte com travas de segurança | Dimensões mínimas da superfície útil quando aberto: 85 cm (C) x 57 em (L) | Instalação: fixação em parede | Cor branco, bege ou cinza | Manual em português, se aplicável. Garantia mínima: 12 meses</t>
-  </si>
-  <si>
-    <t>Lousa de vidro temperado, medidas: 6 MM - 3,00m X 1,20m - Material: Vidro temperado (6 mm a 8 mm de espessura). Acabamento: Fosco (jateado). Fundo: Pintura na cor branca opaca, em tinta PU ou epóxi, resistente a riscos e à umidade, na cor branca. Instalação: pinos metálicos inox com espaçadores de até 2 cm. Com calha inferior para apoio de marcadores. Garantia de atendimento à NBR 14698 (Vidro temperado) e demais normas de segurança aplicáveis. Caso a dimensão padrão não esteja disponível, poderão ser aceitas lousas em dois painéis acoplados, sem prejuízo estético ou funcional. Garantia de 12 meses contra defeitos de fabricação.</t>
-  </si>
-  <si>
-    <t>Capacho de fibra de coco, costurado com espessura mínima de 30mm aproximadamente e mínimo de 600 fios por centímetro quadrado. Produto confeccionado com fibras vegetais resistentes, que proporcionam excelente retenção de sujeira e umidade, preservando a limpeza interna e reduzindo custos de manutenção. Tamanho 1,7/0m x 0,7/0Om. Personalizado com logo do IFSP. Garantia: 12 meses, contra defeito de fabricação.</t>
-  </si>
-  <si>
-    <t>Capacho de fibra de coco, costurado com espessura mínima de 30mm aproximadamente e mínimo de 600 fios por centímetro quadrado Produto confeccionado com fibras vegetais resistentes, que proporcionam excelente retenção de sujeira e umidade, preservando a limpeza interna e reduzindo custos de manutenção. Tamanho 1,30m x 0,60m. Personalizado com logo do IFSP. Garantia: 12 meses, contra defeito de fabricação.</t>
-  </si>
-  <si>
-    <t>Aparelho de ar-condicionado 30.000 BTUs. Qualidade equivalente ou superior ao Modelo: TAC 32CSG?2 - TCL | Tipo Split Hi-Wall | Capacidade de refrigeração: 30.000 BTUs/h | Ciclo: Frio | Classificação energética mínima A (Selo Procel) | Gás refrigerante ecológico R-32 ou superior | Tecnologia Inverter | Função timer, sleep e modo turbo | Modo de operação silencioso | Filtro de ar removível e lavável | Controle remoto com display digital | Tensão de alimentação: 220V monofásico ou conforme necessidade | Serpentina de cobre | Indicador de temperatura no display | Vazão mínima de ar: 900 m?/h | Instalação interna (evaporadora) e externa (condensadora) | Manual de instalação e operação em português | Compatível com normas da ABNT e certificação do Inmetro. Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Frigobar | Sistema de refrigeração frost free (sem formação de gelo) ou degelo cycle defrost | Degelo automático ou semi-automático | Capacidade líquida mínima: 100 L | Freezer interno mínimo de 10L | Classificação energética mínima A (Selo Procel) | Termostato ajustável | Prateleiras removíveis e reguláveis | Compartimento para frutas/legumes | Porta-latas ou porta-garrafas | Iluminação interna | Tensão bivolt ou 127 V | Pés niveladores | Cor branca, preta ou inox | Baixo nível de ruído | Dimensões máximas: 90 cm (A) x 55 cm (L) x 60 cm (P) | Peso máximo: 30 kg | 1 porta com vedação magnética | Acompanha cabo de alimentação e manual em português. Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Smart TV 70”, qualidade equivalente ou superior à Samsung 7ODUT77O00 | com controle remoto | Conversor digital integrado | Tela LED plana, painel RGB 8 bits | Resolução 4K (3840 x 2160), taxa de atualização 120 Hz MR | Vídeo: Mega Contraste, UHD Dimming, PurColor, Contrast Enhancer, Auto Motion Plus, Modo Filme | Áudio: Dolby Digital Plus, DTS Codec, alto-falante 2 canais, potência RMS 20W, Multiroom Link | Smart Service: aplicativos, navegador Web | Convergência: espelhamento TV—mobile e mobile-TV, DLNA, 360 Video Player, Wi-Fi Direct | Recursos: Instant On, processador Quad Core, acessibilidade (guia de voz, ampliar, contraste), Digital Clean View, busca automática de canais, Connect Share (HDD e USB 2.0), POP incorporado, Modo Jogo, Ultra Clean View, sensor ecológico | Wi-Fi integrado | Timer On/Off | Entradas: 3 HDMI, 2 USB, 1 vídeo componente, 1 vídeo composto (comum), 1 rede, 1 RF, 1 saída óptica | Entrada áudio/vídeo | Sistemas de TV: NTSC, PAL-M, PAL-N, ISDB-TB | Consumo: 220W | Classificação ENCE: A | Tensão: Bivolt | Dimensões aproximadas s/ base: 1688,9 x 971,2 x 66,0 mm | Dimensões aproximadas c/ base: 1688,9 x 1052,6 x 384,9 mm | Peso aproximado s/ base: 35,2 kg | Peso aproximado c/ base: 38,8 Kkg. Garantia: 1 ano</t>
-  </si>
-  <si>
-    <t>Pedestal indicado para TVs LED/LCD/Plasma/3D de 32" a 75" com peso até 50kg e compatíveis com padrão de fixação VESA 200x100, 200x200, 200x300, 300x200, 300x300, 400x200, 400x300, 400x400, 600x200 ou 600x400 mm (HxV).Normalmente encontrado em televisores com tela de 32 até 75". Pedestal de Chão com Regulagem de Altura. Bandeja de apoio para DVDs player, Blu-Ray, Notebook. Bandeja superior de apoio para Webcam. FUNÇÕES: Regulagem de altura da TV. Passagem interna para fiação. Regulagem de altura da bandeja inferior. Regulagem de altura da bandeja superior. Rodízios para movimentar o pedestal sobre superfícies planas. CAPACIDADE DE CARGA: Carga máxima do suporte para TV: Até 50Kkg. Carga máxima sobre a bandeja inferior: Até 10kg. Carga máxima sobre a bandeja superior: até 5Kkg. ALTURA: (Medida do chão ao centro da base de monitor): Altura Mínima: 1290mm. Altura Intermediária 13/0mm. Altura Máxima: 1450mm,* 3 opções de altura para a TV EXTRAS: 02 Rodízios com trava para evitar movimentações indesejadas. DADOS TÉCNICOS: Material: Aço Carbono. Medidas aproximadas da Bandeja Inferior: 48,5 x 29,3 em (LxP). Medidas aproximadas da Bandeja Superior: 22,8 x 29,8 cm (LxP). Medida aproximada da Base de Chão: 66,5 x 88 cm. Dimensões aproximadas da embalagem: (A x L x P): 36 x 96 x 12 cm. Peso aproximado bruto: 15 Kkg. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Microfone sem fio + Receptor | Alimentação: pilhas AAA | Frequência da portadora: 640 MHz — 690 MHz | Padrão polar: Cardioide | Sistema de transmissão: sem fio UHF multicanal/multifrequência | Alcance: até 100 metros | Sincronização de frequência: infravermelho | Resposta de frequência: 40 Hz — 20 kHz (+3 dB). Garantia: 12 meses.</t>
-  </si>
-  <si>
-    <t>Transmissor e Receptor de Áudio e Vídeo sem fio | Alcance de transmissão: mínimo 30m em ambiente aberto com sinal estável | Resolução suportada: Full HD 1080p a 60Hz | Frequência de operação: 5GHz (baixa interferência) | Conectividade: Transmissor com entrada HDMI e alimentação via USB-C (opcional) / Receptor com saída HDMI e alimentação via USB | Compatibilidade: notebooks, PCs, consoles (PS4/PS5), projetores, TVs e monitores | Instalação: plug &amp; play, sem necessidade de software ou rede Wi-Fi | Emparelhamento: automático, pré-configurado de fábrica | Latência: baixa, ideal para apresentações, vídeos e jogos | Temperatura de operação: até 50ºC | LED indicador: pisca durante a conexão e permanece aceso quando emparelhado. Garantia: 3 meses.</t>
-  </si>
-  <si>
-    <t>Equivalente ou superior a Marca: JBL | Linha: PartyBox | Modelo: JBLPBENCOREZ22MICBR | Modelo alfanumérico: JIBLPBENCORE2Z2MICBR | Cor: Preto | Formato do alto-falante: Caixa | Com luzes LED: Sim | Com modo mãos livres: Sim | Com função Karaokê: Sim | Com efeito de voz: Sim | Com rádio: Não | É portátil: Sim | É sem fio: Sim | É gamer: Não | É profissional: Não | É monitor de palco: Não | Com visor: Não | Sistemas operacionais compatíveis: Android, iOS e Windows Phone | Largura x Profundidade x Altura: 33,86 cm x 26,3 cm x 31,95 cm | Peso: 6,39 kg | Tipos de alimentação: Bateria | Homologação Anatel nº: 004632507120 | Fabricante: Harman International Industries | É resistente ao pó: Não | Tipo de bateria: Íon de lítio | Com NFC: Não | Classificação IP: IPX4 | Potência de saída (RMS): 100 kW | Tipos de alto-falante: Woofer | Configuração de canais: 5.4 | Resposta em frequência: 40 Hz — 20 kHz | Autonomia máxima da bateria: 15 h | Inclui bateria recarregável: Sim | Voltagem da bateria: 5V | Inclui carregador: Sim | Com base: Não | Com microfone: Sim | Inclui suporte: Não | Inclui controle remoto: Não | Lugares de colocação: De piso | É à prova d'água: Não | É adequado para uso ao ar livre: Sim | Inclui rodas: Não | Inclui puxador: Sim | Com Bluetooth: Sim | Com Wi-Fi: Não | Conectores de entrada: USB. Garantia: 3 meses.</t>
-  </si>
-  <si>
-    <t>Caixa de som, qualidade equivalente ou superior a JBL Party Speaker Ultimate | Potência RMS: 1100W | Bluetooth | Entradas duplas para microfone e violão/guitarra | Resistente à água: à prova de respingos | Sintonizador | Alça para transporte | Consumo: 1100W | Dimensões aproximadas: 104 cm (A) x 45,5 cm (L) x 44 cm (P) | Peso aproximado: 39,5 kg | Conteúdo da embalagem: 01 caixa de som, 01 guia de início rápido/ manual, 01 cartão de garantia/certificado de segurança, 01 cabo de energia. Garantia: 01 ano (3 meses legais + 9 meses concedidos pelo fabricante).</t>
-  </si>
-  <si>
-    <t>Tipo de skateboard, Street Semiprofissional, Material dos trucks: Alumínio. Material dos rolamentos: Rolamentos de skate feitos de aço, cerâmica e titânio. Material do deck: Eucalipto, Quantidade de lâminas do deck 7, Comprimento x Largura, 3.14 cm x 0./8 cm, Peso máximo suportado 100 Kkg, Com lixa, Semi Profissional Completo Montado. Cor das rodas: livre Marca: Progress - PGS, Narina - qualidade equivalente ou similar Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Kit Slackline Completo 10m Profissional - Modelo Nokaya Slackline - qualidade equivalente ou superior. Fita de 10m (Largura:50mm | 100% Poliéster) .Catraca de Tensão (com Fita Rabicho 2,0m) .Protetores de Árvore 1m x 15cm (2un.) .Corda de BackUp 8mm x 3,25m (corda extra de segurança para a catraca) Grafite em Pó para lubrificação da catraca Garantia: 3 meses</t>
-  </si>
-  <si>
-    <t>Kit de Petecas De Badminton De Nylon 6 Unidades Amarelo, Marca Vollo - qualidade equivalente ou superior. Especificações: Cor: Amarela, peso aproximado: 6g cada, dimensões aproximadas: 6,5cm x 8,5cm. Tubo com 6 unidades. Garantia: 30 dias</t>
-  </si>
-  <si>
-    <t>Configuração do Cabo: Tipo: Cabo tipo Y / derivação | Entradas/Saídas: 1 plugue macho tripolar (entrada), 2 conectores fêmeas tripolares (saída) | Distribuição: Fase, neutro e terra conectados paralelamente para alimentação conjunta | Capacidade de corrente: 10 amperes totais, divididos entre os dois equipamentos | Obs.: Os dois dispositivos somados não devem ultrapassar 10A | 2. Condutores: Material: Cobre eletrolítico flexível | Bitola recomendada: 3 x 1,00 mm? | Norma: NBR NM 247-3 | 3. Isolação Interna: Material: PVC ou borracha termoplástica | Cores padrão dos fios: Fase: Preto ou marrom | Neutro: Azul | Terra: Verde ou verde/amarelo | 4. Revestimento Externo: Capa única em PVC flexível | Alta resistência contra abrasão e calor | Cor típica: Preta | Diâmetro externo: Aproximadamente 7—8 mm por ramo. Garantia: mínimo 3 meses</t>
-  </si>
-  <si>
-    <t>Nível 3 Bolhas 18" (45 cm - STHT42073-LA) | Tamanho: 18" (45 cm) | Cor: Amarelo e preto | Frascos: Horizontal, vertical e 45º | Precisão: 0,0005" | Peso líquido aproximado: 500 g | Composição: Alumínio. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Laser com interruptor, base com régua em alumínio de 6 polegadas ou 15 cm e trena de aço de 2,5 metros | Trena de 2,5 m | Laser 63-680nm, potência máxima de saída 5mW, Classe llla | Laser atinge até 8 m de distância | Funciona com 3 baterias AG13 (inclusas) | Nível bolha vertical, horizontal e inclinado | Régua em centímetros e polegadas | Projeta o feixe na horizontal, vertical ou em cruz (ajuste para cima ou para baixo o canhão do laser). Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Kit com 4 rodízios com base giratória de 5", largura mínima de 50 mm e diâmetro mínimo de 125 a 150mm, para Carrinho Plataforma, sendo 2 rodas com freio e 2 rodas livres. Em material poliuretano largo, base em chapa de aço zincado, proporcionando resistência à oxidação/corrosão. Peso mínimo por roda: 100 kg. Rodas adequadas para uso em pisos de cimento irregular. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Kit com 4 rodízios com base giratória de 50 mm, 2 com trava e 2 sem trava, fixação por chapa U com abertura de 19 mm. Anti-risco, em material gel silicone, acabamento brilhante. Altura mínima total: 6,4 cm. Peso mínimo por roda: 50 kg. Garantia: 3 meses.</t>
-  </si>
-  <si>
-    <t>Chaveiros de poliestireno, para identificação de chaves, cores diversas, com etiqueta para identificação | Acabamento: Plástico | Medidas aproximadas: 0,5 X 2,7 X 7,3 cm. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Suporte de parede para controle remoto de ar condicionado. Dimensões externas aproximadas: 34x84x70 mm (Espessura x Altura x Largura) | Dimensões internas aproximadas: 30x82x66 mm (Espessura x Altura x Largura) | Aplicação: Controles com até 30 mm de espessura máxima, 66 mm de comprimento máximo, 200 mm de altura máxima | Material: Plástico ABS | Fixação: parafusos (incluso no Kit). Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>tonner modelo Q2612A para impressora HP Laser Jet 3050 original ou compatível. Garantia mínima de 3 meses.</t>
-  </si>
-  <si>
-    <t>Vaso para plantas, diâmetro da boca: 63 cm de altura - 80 cm de largura - 68 cm. Medida da base: 44 cm. Capacidade para 220L (modelo 3 da imagem que contém as medidas) com pé fixo de diâmetro 45 cm. Cor bege. Material: Polietileno Garantia: 5 anos</t>
-  </si>
-  <si>
-    <t>HD Externo Portátil | Capacidade: 1TB | Cor: Preto | Interface: USB 2.0/3.0 | Taxa de Transferência: até 5 Gb/s | Velocidade de Transferência: até 480 Mb/s | Temperatura de Operação: 5ºC a 35ºC | Temperatura de Armazenamento: -20ºC a 65ºC | Tipo: HDD externo portátil | Dimensão da Embalagem (A/P/L): 15,0 mm / 110,6 mm / 82,1 mm | Requisitos do Sistema: Windows 7/8/8.1/10/11, Mac OS X 10.6 ou posterior, Linux Kernel 2.6 ou posterior | Certificações: FCC-ICES, CE, BSMI, ROCM, VCCI, EAC, KC, UKCA. Garantia: 3 meses.</t>
-  </si>
-  <si>
-    <t>Telefone VoIlP | Contas SIP: 2 | Alimentação: PoE IEEE 802.3af Ativo | Display: 128x48 pixels monocromático com backlight | Teclas programáveis: 2 (L1 e L2) | Teclas softkeys: 4 | Agenda: 500 contatos + agenda remota (XML/LDAP) | Funções: WhiteList, Blacklist, Não Perturbe, Mudo, Hold, Chamada em Espera, Intercom, Chamada anônima, Desvio, Transferência, Rediscagem, Correio de voz, Conferência, HotLine, Histórico de chamadas, SIP Hotspot, Multicast | Histórico de chamadas: Recebidas, Geradas, Perdidas e Desviadas | Status do sistema: LED de status + display | Desvios: ocupado, não atende, sempre | Transferência: cega e/ou com atendimento | Interface LAN/WAN: 10/100 Mbps RJ45 | VLAN compatível IEEE 802.1Q | Configuração e atualização via navegador web ou teclado | Modo IP: Estático, DHCP, PPPoE | Protocolos de Internet: IPv4 e IPv6 | Protocolos: VolIP TCP/UDP, DNS, DNS-SRV, NAT, STUN, VLAN, TLS, QoS, LLDP/LLDP-MED, OpenVPN | Auto provisionamento: DHCP, HTTP/HTTPS, FTP, TFTP, RTP/RTCP/SRTP, SNTP, TRO69 | Protocolo SIP: 2.0 | Modo de operação de rede: Bridge | Áudio: CNG, VAD, cancelamento de eco, PCL, AGC | CODECs: G.711A/U, G.726-16/24/32/40</t>
-  </si>
-  <si>
-    <t>1580,13</t>
-  </si>
-  <si>
-    <t>301,73</t>
-  </si>
-  <si>
-    <t>20665,70</t>
-  </si>
-  <si>
-    <t>338,67</t>
-  </si>
-  <si>
-    <t>863,00</t>
-  </si>
-  <si>
-    <t>703,03</t>
-  </si>
-  <si>
-    <t>2290,54</t>
-  </si>
-  <si>
-    <t>1409,30</t>
-  </si>
-  <si>
-    <t>673,00</t>
-  </si>
-  <si>
-    <t>343,62</t>
-  </si>
-  <si>
-    <t>637,17</t>
-  </si>
-  <si>
-    <t>1862,73</t>
-  </si>
-  <si>
-    <t>2234,37</t>
-  </si>
-  <si>
-    <t>604,00</t>
-  </si>
-  <si>
-    <t>715,57</t>
-  </si>
-  <si>
-    <t>2438,35</t>
-  </si>
-  <si>
-    <t>1301,66</t>
-  </si>
-  <si>
-    <t>1053,70</t>
-  </si>
-  <si>
-    <t>4889,16</t>
-  </si>
-  <si>
-    <t>1520,00</t>
-  </si>
-  <si>
-    <t>4101,08</t>
-  </si>
-  <si>
-    <t>67,36</t>
-  </si>
-  <si>
-    <t>331,64</t>
-  </si>
-  <si>
-    <t>850,35</t>
-  </si>
-  <si>
-    <t>2241,66</t>
-  </si>
-  <si>
-    <t>8770,47</t>
-  </si>
-  <si>
-    <t>265,68</t>
-  </si>
-  <si>
-    <t>216,78</t>
-  </si>
-  <si>
-    <t>121,00</t>
-  </si>
-  <si>
-    <t>24,82</t>
-  </si>
-  <si>
-    <t>55,65</t>
-  </si>
-  <si>
-    <t>108,84</t>
-  </si>
-  <si>
-    <t>177,49</t>
-  </si>
-  <si>
-    <t>53,42</t>
-  </si>
-  <si>
-    <t>0,70</t>
-  </si>
-  <si>
-    <t>16,69</t>
-  </si>
-  <si>
-    <t>45,93</t>
-  </si>
-  <si>
-    <t>784,34</t>
-  </si>
-  <si>
-    <t>417,00</t>
-  </si>
-  <si>
-    <t>392,54</t>
-  </si>
-  <si>
-    <t>2318,63</t>
-  </si>
-  <si>
-    <t>907,02</t>
-  </si>
-  <si>
-    <t>31602,60</t>
-  </si>
-  <si>
-    <t>12069,20</t>
-  </si>
-  <si>
-    <t>687,25</t>
-  </si>
-  <si>
-    <t>1911,50</t>
-  </si>
-  <si>
-    <t>3725,46</t>
-  </si>
-  <si>
-    <t>51944,00</t>
-  </si>
-  <si>
-    <t>2862,28</t>
-  </si>
-  <si>
-    <t>7315,05</t>
-  </si>
-  <si>
-    <t>13016,60</t>
-  </si>
-  <si>
-    <t>9778,33</t>
-  </si>
-  <si>
-    <t>3040,00</t>
-  </si>
-  <si>
-    <t>673,63</t>
-  </si>
-  <si>
-    <t>663,28</t>
-  </si>
-  <si>
-    <t>2551,05</t>
-  </si>
-  <si>
-    <t>1594,08</t>
-  </si>
-  <si>
-    <t>433,56</t>
-  </si>
-  <si>
-    <t>1210,00</t>
-  </si>
-  <si>
-    <t>1241,00</t>
-  </si>
-  <si>
-    <t>354,98</t>
-  </si>
-  <si>
-    <t>213,68</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>1669,00</t>
-  </si>
-  <si>
-    <t>137,79</t>
-  </si>
-  <si>
-    <t>7843,40</t>
-  </si>
-  <si>
-    <t>3336,00</t>
-  </si>
-  <si>
-    <t>3925,40</t>
-  </si>
-  <si>
-    <t>4637,26</t>
-  </si>
-  <si>
-    <t>18140,40</t>
+    <t>ITEM 1  - MULTÍMETRO INDUSTRIAL: Multímetro Industrial de Precisão Com</t>
+  </si>
+  <si>
+    <t>ITEM 2 - MULTÍMETRO DIGITAL PORTÁTIL: Multímetro Digital portátil | Qualidade</t>
+  </si>
+  <si>
+    <t>ITEM 3 - RUGOSÍMETRO: Rugosímetro Portátil, qualidade equivalente ou superior</t>
+  </si>
+  <si>
+    <t>ITEM 4 - SOPRADOR TÉRMICO: Soprador térmico com dois estágios de operação</t>
+  </si>
+  <si>
+    <t>ITEM 5 - FURADEIRA DE IMPACTO: Furadeira de impacto 1/2” (13 mm), potência</t>
+  </si>
+  <si>
+    <t>ITEM 6 - PARAFUSADEIRA SEM FIO: Parafusadeira e chave de impacto elétrica |</t>
+  </si>
+  <si>
+    <t>ITEM 7  - TRANSPALETE HIDRÁULICO MANUAL: Altura dos garfos abaixados</t>
+  </si>
+  <si>
+    <t>ITEM 8 - CARRINHO DE CARGA TIPO PLATAFORMA: Carrinho de carga do tipo</t>
+  </si>
+  <si>
+    <t>ITEM 9 - ESCADA ARTICULADA 16 DEGRAUS: Tipo de posição: Multifuncional |</t>
+  </si>
+  <si>
+    <t>ITEM 10 - ESCADA DE 8 DEGRAUS: Altura total aberta: 220 cm  | Largura total</t>
+  </si>
+  <si>
+    <t>ITEM 11 - ESCADA DE 5 DEGRAUS: Escada dupla (degrau largo) com 5 degraus,</t>
+  </si>
+  <si>
+    <t>ITEM 12 - CARRINHO DE LIMPEZA MULTIFUNCIONAL: Kit de limpeza com 4</t>
+  </si>
+  <si>
+    <t>ITEM 13 - LAVADORA DE ALTA PRESSÃO SEMI-PROFISSIONAL: Lavadora de</t>
+  </si>
+  <si>
+    <t>ITEM 14 - CADEIRA CAIXA ALTA: Cadeira caixa alta, estrutura giratória e base</t>
+  </si>
+  <si>
+    <t>ITEM 15 - TROCADOR DE FRALDA DE PAREDE: Trocador de fraldas de parede,</t>
+  </si>
+  <si>
+    <t>ITEM 16 - LOUSA DE VIDRO: Lousa de vidro temperado, medidas: 6 MM - 3,00m X</t>
+  </si>
+  <si>
+    <t>ITEM 17 - CAPACHO DE FIBRA DE COCO: Capacho de fibra de coco, costurado</t>
+  </si>
+  <si>
+    <t>ITEM 18 - CAPACHO DE FIBRA DE COCO: Capacho de fibra de coco, costurado</t>
+  </si>
+  <si>
+    <t>ITEM 19  - APARELHO DE AR CONDICIONADO: Aparelho de ar-condicionado</t>
+  </si>
+  <si>
+    <t>ITEM 20 - FRIGOBAR: Frigobar | Sistema de refrigeração frost free (sem formação</t>
+  </si>
+  <si>
+    <t>ITEM 21  - TELEVISÃO 70”: Smart TV 70”, qualidade equivalente ou superior à</t>
+  </si>
+  <si>
+    <t>ITEM 22 - PEDESTAL PARA TRANSPORTE DE TV: Pedestal indicado para TVs</t>
+  </si>
+  <si>
+    <t>ITEM 23 - MICROFONE: Microfone sem fio + Receptor | Alimentação: pilhas AAA |</t>
+  </si>
+  <si>
+    <t>ITEM 24  - TRANSMISSOR E RECEPTOR DE ÁUDIO E VÍDEO: Transmissor e</t>
+  </si>
+  <si>
+    <t>ITEM 25 - CAIXA DE SOM MÓVEL COM MICROFONES: Equivalente ou superior a</t>
+  </si>
+  <si>
+    <t>ITEM 26  - CAIXA DE SOM MÓVEL: Caixa de som, qualidade equivalente ou</t>
+  </si>
+  <si>
+    <t>ITEM 27 - SKATE: Tipo de skateboard, Street Semiprofissional, Material dos trucks:</t>
+  </si>
+  <si>
+    <t>ITEM 28 - SLACKLINE: Kit Slackline Completo 10m Profissional - Modelo Nokaya</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1037,20 +791,17 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>174</v>
+      <c r="F2">
+        <v>31602.6</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1066,20 +817,17 @@
       <c r="D3">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>175</v>
+      <c r="F3">
+        <v>12069.2</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1095,20 +843,20 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
+      <c r="E4">
+        <v>20665.7</v>
+      </c>
+      <c r="F4">
+        <v>20665.7</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1124,20 +872,20 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
+      <c r="E5">
+        <v>338.67</v>
+      </c>
+      <c r="F5">
+        <v>338.67</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1153,20 +901,20 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
+      <c r="E6">
+        <v>863</v>
+      </c>
+      <c r="F6">
+        <v>863</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1182,20 +930,20 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" t="s">
-        <v>137</v>
+      <c r="E7">
+        <v>703.03</v>
+      </c>
+      <c r="F7">
+        <v>703.03</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1211,20 +959,20 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" t="s">
-        <v>138</v>
+      <c r="E8">
+        <v>2290.54</v>
+      </c>
+      <c r="F8">
+        <v>2290.54</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1240,20 +988,20 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" t="s">
-        <v>139</v>
+      <c r="E9">
+        <v>1409.3</v>
+      </c>
+      <c r="F9">
+        <v>1409.3</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1269,20 +1017,20 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" t="s">
-        <v>140</v>
+      <c r="E10">
+        <v>673</v>
+      </c>
+      <c r="F10">
+        <v>673</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1298,20 +1046,17 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" t="s">
-        <v>176</v>
+      <c r="F11">
+        <v>687.25</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1327,20 +1072,20 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" t="s">
-        <v>177</v>
+      <c r="E12">
+        <v>637.1666666666666</v>
+      </c>
+      <c r="F12">
+        <v>1911.5</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1356,20 +1101,17 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" t="s">
-        <v>178</v>
+      <c r="F13">
+        <v>3725.46</v>
       </c>
       <c r="G13" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1385,20 +1127,20 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
+      <c r="E14">
+        <v>2234.37</v>
+      </c>
+      <c r="F14">
+        <v>2234.37</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1414,20 +1156,17 @@
       <c r="D15">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" t="s">
-        <v>179</v>
+      <c r="F15">
+        <v>51944</v>
       </c>
       <c r="G15" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1443,20 +1182,17 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>180</v>
+      <c r="F16">
+        <v>2862.28</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1472,20 +1208,20 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="s">
-        <v>181</v>
+      <c r="E17">
+        <v>2438.35</v>
+      </c>
+      <c r="F17">
+        <v>7315.049999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1501,20 +1237,17 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" t="s">
-        <v>182</v>
+      <c r="F18">
+        <v>13016.6</v>
       </c>
       <c r="G18" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1530,20 +1263,20 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" t="s">
-        <v>149</v>
+      <c r="E19">
+        <v>1053.7</v>
+      </c>
+      <c r="F19">
+        <v>1053.7</v>
       </c>
       <c r="G19" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1559,20 +1292,17 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" t="s">
-        <v>183</v>
+      <c r="F20">
+        <v>9778.33</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1588,20 +1318,17 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" t="s">
-        <v>184</v>
+      <c r="F21">
+        <v>3040</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1617,20 +1344,20 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" t="s">
-        <v>152</v>
+      <c r="E22">
+        <v>4101.08</v>
+      </c>
+      <c r="F22">
+        <v>4101.08</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1646,20 +1373,17 @@
       <c r="D23">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
+      <c r="F23">
+        <v>673.63</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1675,20 +1399,17 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" t="s">
-        <v>186</v>
+      <c r="F24">
+        <v>663.28</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1704,20 +1425,20 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" t="s">
-        <v>187</v>
+      <c r="E25">
+        <v>850.35</v>
+      </c>
+      <c r="F25">
+        <v>2551.05</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1733,20 +1454,20 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" t="s">
-        <v>156</v>
+      <c r="E26">
+        <v>2241.66</v>
+      </c>
+      <c r="F26">
+        <v>2241.66</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1762,20 +1483,20 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>157</v>
+      <c r="E27">
+        <v>8770.469999999999</v>
+      </c>
+      <c r="F27">
+        <v>8770.469999999999</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1791,20 +1512,17 @@
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" t="s">
-        <v>188</v>
+      <c r="F28">
+        <v>1594.08</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1820,20 +1538,17 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" t="s">
-        <v>189</v>
+      <c r="F29">
+        <v>433.56</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1843,26 +1558,20 @@
       <c r="B30" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
       <c r="D30">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>190</v>
+      <c r="F30">
+        <v>1210</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1872,26 +1581,20 @@
       <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" t="s">
-        <v>191</v>
+      <c r="F31">
+        <v>1241</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1901,26 +1604,23 @@
       <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" t="s">
-        <v>162</v>
+      <c r="E32">
+        <v>55.65</v>
+      </c>
+      <c r="F32">
+        <v>55.65</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1930,26 +1630,23 @@
       <c r="B33" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
-        <v>123</v>
-      </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" t="s">
-        <v>163</v>
+      <c r="E33">
+        <v>108.84</v>
+      </c>
+      <c r="F33">
+        <v>108.84</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1959,26 +1656,20 @@
       <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" t="s">
-        <v>192</v>
+      <c r="F34">
+        <v>354.98</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1988,26 +1679,20 @@
       <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" t="s">
-        <v>193</v>
+      <c r="F35">
+        <v>213.68</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2017,26 +1702,20 @@
       <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
       <c r="D36">
         <v>500</v>
       </c>
-      <c r="E36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" t="s">
-        <v>194</v>
+      <c r="F36">
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I36" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2046,26 +1725,20 @@
       <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
-        <v>127</v>
-      </c>
       <c r="D37">
         <v>100</v>
       </c>
-      <c r="E37" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" t="s">
-        <v>195</v>
+      <c r="F37">
+        <v>1669</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I37" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2075,26 +1748,23 @@
       <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" t="s">
-        <v>196</v>
+      <c r="E38">
+        <v>45.93</v>
+      </c>
+      <c r="F38">
+        <v>137.79</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H38" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2104,26 +1774,20 @@
       <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
-        <v>129</v>
-      </c>
       <c r="D39">
         <v>10</v>
       </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" t="s">
-        <v>197</v>
+      <c r="F39">
+        <v>7843.4</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H39" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2133,26 +1797,20 @@
       <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" t="s">
-        <v>198</v>
+      <c r="F40">
+        <v>3336</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2162,26 +1820,20 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
       <c r="D41">
         <v>10</v>
       </c>
-      <c r="E41" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" t="s">
-        <v>199</v>
+      <c r="F41">
+        <v>3925.4</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I41" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2194,20 +1846,17 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" t="s">
-        <v>200</v>
+      <c r="F42">
+        <v>4637.26</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H42" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2220,20 +1869,17 @@
       <c r="D43">
         <v>20</v>
       </c>
-      <c r="E43" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" t="s">
-        <v>201</v>
+      <c r="F43">
+        <v>18140.4</v>
       </c>
       <c r="G43" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
